--- a/biology/Zoologie/Hyla_sanchiangensis/Hyla_sanchiangensis.xlsx
+++ b/biology/Zoologie/Hyla_sanchiangensis/Hyla_sanchiangensis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Hyla sanchiangensis est une espèce d'amphibiens de la famille des Hylidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Hyla sanchiangensis est une espèce d'amphibiens de la famille des Hylidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Cette espèce est endémique du centre et du Sud de la République populaire de Chine. Elle se rencontre[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Cette espèce est endémique du centre et du Sud de la République populaire de Chine. Elle se rencontre :
 au Guangxi ;
 au Guizhou ;
 au Hunan ;
@@ -548,9 +562,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'holotype de Hyla sanchiangensis[2] mesure 34 mm. Son dos est vert avec de nombreuses taches noires dans sa partie postérieure.
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'holotype de Hyla sanchiangensis mesure 34 mm. Son dos est vert avec de nombreuses taches noires dans sa partie postérieure.
 </t>
         </is>
       </c>
@@ -579,9 +595,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son nom d'espèce, composé de sanchiang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, San Chiang[2] dans le nord-ouest de la province du Fujian.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son nom d'espèce, composé de sanchiang et du suffixe latin -ensis, « qui vit dans, qui habite », lui a été donné en référence au lieu de sa découverte, San Chiang dans le nord-ouest de la province du Fujian.
 </t>
         </is>
       </c>
@@ -610,7 +628,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Pope, 1929, Four new frogs from Fukien Province, China. American Museum novitates, no 352, p. 1-5 (texte intégral).</t>
         </is>
